--- a/stage_1/Formulas_Functions/MIN_MAX.xlsx
+++ b/stage_1/Formulas_Functions/MIN_MAX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Beginners/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{F1B6CA8D-9EF2-448A-A95E-57357DD83E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F29EB469-4AEF-4584-A7FA-0E81B84E706B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C15AF-BC8B-4336-9323-1164D8B6FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
   <sheets>
     <sheet name="MIN and MAX" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -166,7 +166,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -498,18 +498,18 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2">
         <v>2021</v>
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,10 +546,16 @@
       <c r="F3" s="3">
         <v>8533</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="5">
+        <f xml:space="preserve"> MIN(C3:F3)</f>
+        <v>6247</v>
+      </c>
+      <c r="H3" s="5">
+        <f xml:space="preserve"> MAX(C3:F3)</f>
+        <v>9936</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +574,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -587,7 +593,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -606,7 +612,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -625,7 +631,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -644,7 +650,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -663,7 +669,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -682,7 +688,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -701,7 +707,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -720,7 +726,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -739,7 +745,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>

--- a/stage_1/Formulas_Functions/MIN_MAX.xlsx
+++ b/stage_1/Formulas_Functions/MIN_MAX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C15AF-BC8B-4336-9323-1164D8B6FF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF07AB-E12A-41A1-B1A5-84048887855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,8 +571,14 @@
       <c r="F4" s="3">
         <v>8104</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G14" si="0" xml:space="preserve"> MIN(C4:F4)</f>
+        <v>5146</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H14" si="1" xml:space="preserve"> MAX(C4:F4)</f>
+        <v>8727</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
@@ -590,8 +596,14 @@
       <c r="F5" s="3">
         <v>5081</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>5081</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
+        <v>8250</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
@@ -609,8 +621,14 @@
       <c r="F6" s="3">
         <v>6360</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>6360</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
+        <v>9943</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
@@ -628,8 +646,14 @@
       <c r="F7" s="3">
         <v>5484</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>5484</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>7634</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
@@ -647,8 +671,14 @@
       <c r="F8" s="3">
         <v>7997</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>5273</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="1"/>
+        <v>8714</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -666,8 +696,14 @@
       <c r="F9" s="3">
         <v>7908</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>5538</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>8029</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
@@ -685,8 +721,14 @@
       <c r="F10" s="3">
         <v>9438</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>6154</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>9438</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
@@ -704,8 +746,14 @@
       <c r="F11" s="3">
         <v>6957</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>6957</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>9216</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
@@ -723,8 +771,14 @@
       <c r="F12" s="3">
         <v>9581</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>5848</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>9581</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
@@ -742,8 +796,14 @@
       <c r="F13" s="3">
         <v>6435</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>9393</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
@@ -761,8 +821,14 @@
       <c r="F14" s="3">
         <v>8145</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>5803</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>8453</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
